--- a/project/example/DataApi.xlsx
+++ b/project/example/DataApi.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -45,18 +45,7 @@
     <t>level4</t>
   </si>
   <si>
-    <r>
-      <t>登录获取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>token</t>
-    </r>
+    <t>登录获取token</t>
   </si>
   <si>
     <t>UserLogin</t>
@@ -80,18 +69,7 @@
     <t>用户资产数据</t>
   </si>
   <si>
-    <r>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误获取用户资产</t>
-    </r>
+    <t>token错误获取用户资产</t>
   </si>
   <si>
     <t>UserAssetTokenWrong</t>
@@ -112,18 +90,7 @@
     <t>用户信息</t>
   </si>
   <si>
-    <r>
-      <t>token</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>错误获取用户数据</t>
-    </r>
+    <t>token错误获取用户数据</t>
   </si>
   <si>
     <t>UserDataTokenWrong</t>
@@ -141,9 +108,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -167,12 +134,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,10 +153,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,16 +169,90 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,38 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -264,35 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -300,20 +281,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -336,13 +303,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +387,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,133 +459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,15 +582,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +606,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -664,6 +640,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -674,30 +665,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,10 +691,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,137 +703,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,16 +852,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -909,22 +873,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1281,7 +1239,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1303,390 +1261,390 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
-      <c r="A3" s="9">
+    <row r="3" ht="17.25" spans="1:7">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="15.75" spans="1:7">
-      <c r="A4" s="9">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:7">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" ht="15.75" spans="1:7">
-      <c r="A5" s="9">
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:7">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" ht="15.75" spans="1:7">
-      <c r="A6" s="9">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:7">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" ht="15.75" spans="1:7">
-      <c r="A7" s="9">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:7">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="15.75" spans="1:7">
-      <c r="A8" s="9">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:7">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:7">
-      <c r="A9" s="9">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:7">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:7">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:7">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:7">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:7">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:7">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:7">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:7">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" ht="17.25" spans="1:7">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" ht="17.25" spans="1:7">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" ht="17.25" spans="1:7">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" ht="17.25" spans="1:7">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" ht="17.25" spans="1:7">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" ht="17.25" spans="1:7">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" ht="17.25" spans="1:7">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" ht="17.25" spans="1:7">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:7">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" ht="17.25" spans="1:7">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:7">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" ht="17.25" spans="1:7">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" ht="17.25" spans="1:7">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" ht="17.25" spans="1:7">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" ht="17.25" spans="1:7">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" ht="17.25" spans="1:7">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" ht="17.25" spans="1:7">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" ht="17.25" spans="1:7">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" ht="17.25" spans="1:7">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" ht="17.25" spans="1:7">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" ht="17.25" spans="1:7">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1697,6 +1655,14 @@
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F9"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A3:A38" errorStyle="warning">
+      <formula1>COUNTIF($A$3:$A$38,A3)&lt;2</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:C36" errorStyle="warning">
+      <formula1>COUNTIF($C$3:$C$36,C3)&lt;2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
